--- a/Documentation/Test Cases/Test Cases.xlsx
+++ b/Documentation/Test Cases/Test Cases.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaan\Desktop\SMU\Tempest\Documentation\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CACCC00F-C9A4-4B20-B5CF-66D7D63793F1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E654F0-BE0B-4E98-8BB9-CDC732B63CB1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6600" xr2:uid="{C6E4BB7B-75ED-42D2-8931-FE7C9C9824C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6600" activeTab="1" xr2:uid="{C6E4BB7B-75ED-42D2-8931-FE7C9C9824C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration and authentication" sheetId="1" r:id="rId1"/>
+    <sheet name="Appointment Booking" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>S/N</t>
   </si>
@@ -106,9 +108,6 @@
   </si>
   <si>
     <t>Different password from correct password</t>
-  </si>
-  <si>
-    <t>Password matches correct password</t>
   </si>
   <si>
     <t>Password same as correct password</t>
@@ -149,12 +148,105 @@
   <si>
     <t>Passwords should not be stored as plain-text</t>
   </si>
+  <si>
+    <t>Passwords are hashed</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Password rejected, see screenshot below</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Screenshot for failed procedure 10</t>
+  </si>
+  <si>
+    <t>Password matches correct password. User id and pw to run as follows.
+audreytan, tan123
+nicolelee, lee123
+prisng, ng123</t>
+  </si>
+  <si>
+    <t>Should not be able to spam bookings from the same IP address</t>
+  </si>
+  <si>
+    <t>From the same IP address, attempt to book 3 appointments within 5min</t>
+  </si>
+  <si>
+    <t>Check ability to guard against spam appointments</t>
+  </si>
+  <si>
+    <t>Should be able to cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel appointment made </t>
+  </si>
+  <si>
+    <t>Check ability to cancel appointment</t>
+  </si>
+  <si>
+    <t>Should do a random selection to decide which booking goes through, and the other booking will not go through</t>
+  </si>
+  <si>
+    <t>Fill in appointment 1 for 1 slot and simultaneously fill in appointment 2 for the same slot (make the timestamp backend the same)</t>
+  </si>
+  <si>
+    <t>Should be able to book appointment 1, but not be able to book appointment 2</t>
+  </si>
+  <si>
+    <t>Fill in appointment 1 for 1 slot and appointment 2 for the same slot (outlet, time, and stylist)</t>
+  </si>
+  <si>
+    <t>Check for conflicts in bookings</t>
+  </si>
+  <si>
+    <t>Should not be able to book</t>
+  </si>
+  <si>
+    <t>Attempt to book a 3hour long treatment 1 hour before closing time</t>
+  </si>
+  <si>
+    <t>Attempt to book appointment after closing hours</t>
+  </si>
+  <si>
+    <t>Attempt to book appointment before opening hours</t>
+  </si>
+  <si>
+    <t>Should be able to book</t>
+  </si>
+  <si>
+    <t>Book appointment of the same slot after appointment cancelled</t>
+  </si>
+  <si>
+    <t>Fill in fields only partially</t>
+  </si>
+  <si>
+    <t>Fill in all fields correctly</t>
+  </si>
+  <si>
+    <t>Check ability to book appointment</t>
+  </si>
+  <si>
+    <t>Was it correct</t>
+  </si>
+  <si>
+    <t>Actual results</t>
+  </si>
+  <si>
+    <t>Correct Outcome</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -168,16 +260,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -200,11 +311,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -222,17 +371,57 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{FAA3CB2B-EF63-450D-83BA-827B480A743C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -245,6 +434,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>220002</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>30669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7F5451-2C2A-4B9A-B223-414AAFD0EAA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3943350"/>
+          <a:ext cx="17980952" cy="8647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,9 +782,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3044F3-84E0-4E65-B040-A208DACC2A78}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -587,182 +827,195 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="57.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -772,5 +1025,213 @@
     <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E2D827-E721-46A5-BB69-74C57217E1B9}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="18"/>
+    <col min="2" max="2" width="50.3984375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="70.69921875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="39" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.8984375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C323CDC-1B6D-4FA0-B5F7-5E44D39740BC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/Test Cases/Test Cases.xlsx
+++ b/Documentation/Test Cases/Test Cases.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaan\Desktop\SMU\Tempest\Documentation\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E654F0-BE0B-4E98-8BB9-CDC732B63CB1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCCD142-F282-4E98-8467-992559B34EAF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6600" activeTab="1" xr2:uid="{C6E4BB7B-75ED-42D2-8931-FE7C9C9824C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6600" xr2:uid="{C6E4BB7B-75ED-42D2-8931-FE7C9C9824C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration and authentication" sheetId="1" r:id="rId1"/>
     <sheet name="Appointment Booking" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Member Management" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
   <si>
     <t>S/N</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Password rejected, see screenshot below</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -240,6 +237,106 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Description/Test to run</t>
+  </si>
+  <si>
+    <t>Ability to edit user profile</t>
+  </si>
+  <si>
+    <t>Change display pic</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Change email</t>
+  </si>
+  <si>
+    <t>Ability to view loyalty points history</t>
+  </si>
+  <si>
+    <t>Ability to view treatment history</t>
+  </si>
+  <si>
+    <t>View loyalty points history</t>
+  </si>
+  <si>
+    <t>View treatment history</t>
+  </si>
+  <si>
+    <t>Change mobile number to another valid number</t>
+  </si>
+  <si>
+    <t>Do not fill in all 8 digits (eg. fill in 7 digits of phone number)</t>
+  </si>
+  <si>
+    <t>Fill in some blanks with alphabets and special characters instead of numbers</t>
+  </si>
+  <si>
+    <t>Should not be able to change mobile number</t>
+  </si>
+  <si>
+    <t>Fill in all 8 digits with numbers, which are not already recorded in the database</t>
+  </si>
+  <si>
+    <t>Should be able to change mobile number</t>
+  </si>
+  <si>
+    <t>Fill in all 8 digits with numbers which are already existing in the database (duplicate mobile number)</t>
+  </si>
+  <si>
+    <t>Should be able to change display pic</t>
+  </si>
+  <si>
+    <t>See tests in registration and authentication</t>
+  </si>
+  <si>
+    <t>Fill in new email address which is not already recorded in the database</t>
+  </si>
+  <si>
+    <t>Should be able to change email address</t>
+  </si>
+  <si>
+    <t>Fill in new email address, which is already existing in the database</t>
+  </si>
+  <si>
+    <t>Should not be able to change email address</t>
+  </si>
+  <si>
+    <t>Attempt to change mobile number to an invalid number</t>
+  </si>
+  <si>
+    <t>Attempt to change email address to a duplicate email address</t>
+  </si>
+  <si>
+    <t>Attempt to edit loyalty points history</t>
+  </si>
+  <si>
+    <t>Attempt to edit treatment history</t>
+  </si>
+  <si>
+    <t>Should be able to view loyalty points history</t>
+  </si>
+  <si>
+    <t>Attempt to find a button to edit loyalty points</t>
+  </si>
+  <si>
+    <t>Should have no such edit button</t>
+  </si>
+  <si>
+    <t>Should be able to view treatment history</t>
+  </si>
+  <si>
+    <t>Should not be able to edit treatment history</t>
+  </si>
+  <si>
+    <t>Attempt to find a button to edit treatment history</t>
+  </si>
+  <si>
+    <t>Password rejected, see screenshot below
+Note: Previously when I ran this test right away when authentication module was almost done, it worked</t>
   </si>
 </sst>
 </file>
@@ -288,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -348,12 +445,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -373,12 +496,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -395,14 +512,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -412,11 +541,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -446,8 +587,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>220002</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>181902</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>30669</xdr:rowOff>
     </xdr:to>
@@ -784,8 +925,452 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3044F3-84E0-4E65-B040-A208DACC2A78}">
   <dimension ref="A1:G15"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="2"/>
+    <col min="2" max="2" width="33.296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.19921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="80.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E2D827-E721-46A5-BB69-74C57217E1B9}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="15"/>
+    <col min="2" max="2" width="50.3984375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="70.69921875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="39" style="17" customWidth="1"/>
+    <col min="5" max="5" width="20.8984375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C323CDC-1B6D-4FA0-B5F7-5E44D39740BC}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -827,411 +1412,220 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
+      <c r="B2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
+      <c r="B5" s="26"/>
+      <c r="C5" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
+      <c r="B10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" ht="57.5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6" t="s">
-        <v>34</v>
+      <c r="B11" s="27"/>
+      <c r="C11" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>26</v>
+      <c r="B12" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E2D827-E721-46A5-BB69-74C57217E1B9}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.796875" style="18"/>
-    <col min="2" max="2" width="50.3984375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="70.69921875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="39" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C323CDC-1B6D-4FA0-B5F7-5E44D39740BC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>